--- a/LowLatencySwaps/LowLatencySwaps.xlsx
+++ b/LowLatencySwaps/LowLatencySwaps.xlsx
@@ -13,21 +13,17 @@
     <sheet name="Low Latency Pricing" sheetId="4" r:id="rId4"/>
     <sheet name="Low Latency Risk" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FixedLeg">'Low Latency Pricing'!$N$3:$Q$63</definedName>
-    <definedName name="FloatLeg">'Low Latency Pricing'!$S$3:$X$123</definedName>
+    <definedName name="FixedLeg">'Low Latency Pricing'!$N$4:$Q$63</definedName>
+    <definedName name="FloatLeg">'Low Latency Pricing'!$S$4:$X$123</definedName>
     <definedName name="ForwardRate">'Low Latency Pricing'!$K$3</definedName>
     <definedName name="InputForwardRate">'Low Latency Pricing'!$F$3</definedName>
     <definedName name="InputZeroRate">'Low Latency Pricing'!$D$3</definedName>
-    <definedName name="N">[1]Swaps!$C$7</definedName>
-    <definedName name="Phi">[1]Swaps!$C$35</definedName>
     <definedName name="Randomize">'Low Latency Pricing'!$B$3</definedName>
     <definedName name="ZeroRate">'Low Latency Pricing'!$I$3</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1696,7 +1692,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000%"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="60" x14ac:knownFonts="1">
     <font>
@@ -3333,282 +3329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3743,13 +3463,289 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="56" fillId="8" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3775,7 +3771,337 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0"/>
+              <a:t>Swap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" baseline="0"/>
+              <a:t> Spread Over US Treasuries</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26414566269668549"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13950038908453027"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.81638955934528279"/>
+          <c:h val="0.89719889180519097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Swap Trade'!$M$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spread
+(bps)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Swap Trade'!$K$43:$K$60</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1Y</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2Y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3Y</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4Y</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5Y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6Y</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7Y</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8Y</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9Y</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10Y</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11Y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12Y</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13Y</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14Y</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15Y</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20Y</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25Y</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Swap Trade'!$M$43:$M$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6190000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="284935680"/>
+        <c:axId val="284937216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="284935680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-1500000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284937216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="284937216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="284935680"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44187973990688345"/>
+          <c:y val="0.78221529600466611"/>
+          <c:w val="0.19549479681873935"/>
+          <c:h val="0.13965660542432196"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8319,7 +8645,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9444,7 +9770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9563,7 +9889,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9712,38 +10038,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Settings"/>
-      <sheetName val="USD Curve"/>
-      <sheetName val="Swaps"/>
-      <sheetName val="Risk"/>
-      <sheetName val="Jacobian"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="C7">
-            <v>1000000</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>-1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10001,7 +10295,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10026,39 +10320,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="212" t="s">
+      <c r="C3" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
-      <c r="G3" s="209" t="s">
+      <c r="D3" s="221"/>
+      <c r="E3" s="221"/>
+      <c r="F3" s="221"/>
+      <c r="G3" s="218" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="211"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
+      <c r="N3" s="220"/>
       <c r="P3" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
-      <c r="J4" s="210"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="211"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="219"/>
+      <c r="H4" s="219"/>
+      <c r="I4" s="219"/>
+      <c r="J4" s="219"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="220"/>
       <c r="P4" t="s">
         <v>84</v>
       </c>
@@ -10069,75 +10363,75 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="241" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="213" t="s">
+      <c r="C6" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="213"/>
-      <c r="E6" s="213"/>
-      <c r="F6" s="213"/>
-      <c r="G6" s="188" t="s">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="244" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188" t="s">
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="189"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="244"/>
+      <c r="N6" s="249"/>
       <c r="P6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="207"/>
-      <c r="C7" s="170" t="s">
+      <c r="B7" s="242"/>
+      <c r="C7" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="197" t="s">
+      <c r="D7" s="229"/>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="231" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197" t="s">
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="198"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="235"/>
       <c r="P7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="207"/>
-      <c r="C8" s="170" t="s">
+      <c r="B8" s="242"/>
+      <c r="C8" s="229" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="193">
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="245">
         <v>1000000</v>
       </c>
-      <c r="H8" s="194"/>
-      <c r="I8" s="194"/>
-      <c r="J8" s="199"/>
-      <c r="K8" s="193">
+      <c r="H8" s="246"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="245">
         <v>1000000</v>
       </c>
-      <c r="L8" s="194"/>
-      <c r="M8" s="194"/>
-      <c r="N8" s="195"/>
+      <c r="L8" s="246"/>
+      <c r="M8" s="246"/>
+      <c r="N8" s="252"/>
       <c r="P8" t="s">
         <v>22</v>
       </c>
@@ -10146,91 +10440,91 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="207"/>
-      <c r="C9" s="170" t="s">
+      <c r="B9" s="242"/>
+      <c r="C9" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="176">
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="248">
         <v>0.01</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="214" t="s">
+      <c r="H9" s="248"/>
+      <c r="I9" s="248"/>
+      <c r="J9" s="248"/>
+      <c r="K9" s="234" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="198"/>
+      <c r="L9" s="231"/>
+      <c r="M9" s="231"/>
+      <c r="N9" s="235"/>
     </row>
     <row r="10" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="207"/>
+      <c r="B10" s="242"/>
       <c r="C10" s="49" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
-      <c r="G10" s="176" t="s">
+      <c r="G10" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="191">
+      <c r="H10" s="248"/>
+      <c r="I10" s="248"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="250">
         <v>0</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="191"/>
-      <c r="N10" s="192"/>
+      <c r="L10" s="250"/>
+      <c r="M10" s="250"/>
+      <c r="N10" s="251"/>
     </row>
     <row r="11" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="207"/>
-      <c r="C11" s="170" t="s">
+      <c r="B11" s="242"/>
+      <c r="C11" s="229" t="s">
         <v>145</v>
       </c>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="181" t="s">
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="229"/>
+      <c r="G11" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181" t="s">
+      <c r="H11" s="232"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="182"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="258"/>
       <c r="P11" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="208"/>
-      <c r="C12" s="170" t="s">
+      <c r="B12" s="243"/>
+      <c r="C12" s="229" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="203"/>
-      <c r="G12" s="183" t="s">
+      <c r="D12" s="229"/>
+      <c r="E12" s="229"/>
+      <c r="F12" s="230"/>
+      <c r="G12" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="183"/>
-      <c r="I12" s="183"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="183" t="s">
+      <c r="H12" s="233"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="233" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="183"/>
-      <c r="M12" s="183"/>
-      <c r="N12" s="184"/>
+      <c r="L12" s="233"/>
+      <c r="M12" s="233"/>
+      <c r="N12" s="259"/>
       <c r="P12" t="s">
         <v>19</v>
       </c>
@@ -10239,27 +10533,27 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="200" t="s">
+      <c r="B13" s="236" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="223" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="171" t="s">
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171" t="s">
+      <c r="H13" s="226"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="190"/>
+      <c r="L13" s="226"/>
+      <c r="M13" s="226"/>
+      <c r="N13" s="227"/>
       <c r="P13" t="s">
         <v>122</v>
       </c>
@@ -10268,25 +10562,25 @@
       </c>
     </row>
     <row r="14" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="201"/>
-      <c r="C14" s="169" t="s">
+      <c r="B14" s="237"/>
+      <c r="C14" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="172" t="s">
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172" t="s">
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="172"/>
-      <c r="M14" s="172"/>
-      <c r="N14" s="172"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
       <c r="P14" t="s">
         <v>121</v>
       </c>
@@ -10295,25 +10589,25 @@
       </c>
     </row>
     <row r="15" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="201"/>
-      <c r="C15" s="169" t="s">
+      <c r="B15" s="237"/>
+      <c r="C15" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="186">
+      <c r="D15" s="223"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="223"/>
+      <c r="G15" s="253">
         <v>1</v>
       </c>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
-      <c r="K15" s="186">
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253">
         <v>1</v>
       </c>
-      <c r="L15" s="186"/>
-      <c r="M15" s="186"/>
-      <c r="N15" s="196"/>
+      <c r="L15" s="253"/>
+      <c r="M15" s="253"/>
+      <c r="N15" s="254"/>
       <c r="P15" t="s">
         <v>120</v>
       </c>
@@ -10322,91 +10616,91 @@
       </c>
     </row>
     <row r="16" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="201"/>
-      <c r="C16" s="169" t="s">
+      <c r="B16" s="237"/>
+      <c r="C16" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="171" t="s">
+      <c r="D16" s="223"/>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171" t="s">
+      <c r="H16" s="226"/>
+      <c r="I16" s="226"/>
+      <c r="J16" s="226"/>
+      <c r="K16" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="171"/>
-      <c r="M16" s="171"/>
-      <c r="N16" s="190"/>
+      <c r="L16" s="226"/>
+      <c r="M16" s="226"/>
+      <c r="N16" s="227"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="201"/>
-      <c r="C17" s="169" t="s">
+      <c r="B17" s="237"/>
+      <c r="C17" s="223" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="171" t="s">
+      <c r="D17" s="223"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="223"/>
+      <c r="G17" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171" t="s">
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="171"/>
-      <c r="M17" s="171"/>
-      <c r="N17" s="190"/>
+      <c r="L17" s="226"/>
+      <c r="M17" s="226"/>
+      <c r="N17" s="227"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="201"/>
-      <c r="C18" s="169" t="s">
+      <c r="B18" s="237"/>
+      <c r="C18" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="171" t="s">
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171" t="s">
+      <c r="H18" s="226"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="171"/>
-      <c r="M18" s="171"/>
-      <c r="N18" s="190"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="227"/>
       <c r="P18" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="201"/>
-      <c r="C19" s="169" t="s">
+      <c r="B19" s="237"/>
+      <c r="C19" s="223" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="171" t="s">
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="226" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171" t="s">
+      <c r="H19" s="226"/>
+      <c r="I19" s="226"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="226" t="s">
         <v>38</v>
       </c>
-      <c r="L19" s="171"/>
-      <c r="M19" s="171"/>
-      <c r="N19" s="190"/>
+      <c r="L19" s="226"/>
+      <c r="M19" s="226"/>
+      <c r="N19" s="227"/>
       <c r="P19" t="s">
         <v>35</v>
       </c>
@@ -10415,25 +10709,25 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="201"/>
-      <c r="C20" s="169" t="s">
+      <c r="B20" s="237"/>
+      <c r="C20" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="171" t="s">
+      <c r="D20" s="223"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171" t="s">
+      <c r="H20" s="226"/>
+      <c r="I20" s="226"/>
+      <c r="J20" s="226"/>
+      <c r="K20" s="226" t="s">
         <v>20</v>
       </c>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="190"/>
+      <c r="L20" s="226"/>
+      <c r="M20" s="226"/>
+      <c r="N20" s="227"/>
       <c r="P20" t="s">
         <v>102</v>
       </c>
@@ -10442,25 +10736,25 @@
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="201"/>
-      <c r="C21" s="168" t="s">
+      <c r="B21" s="237"/>
+      <c r="C21" s="222" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="172" t="s">
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172" t="s">
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="178"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="225"/>
       <c r="P21" t="s">
         <v>101</v>
       </c>
@@ -10469,25 +10763,25 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="201"/>
-      <c r="C22" s="168" t="s">
+      <c r="B22" s="237"/>
+      <c r="C22" s="222" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="172" t="s">
+      <c r="D22" s="223"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="223"/>
+      <c r="G22" s="224" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172" t="s">
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="178"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="225"/>
       <c r="P22" t="s">
         <v>103</v>
       </c>
@@ -10496,25 +10790,25 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="201"/>
-      <c r="C23" s="168" t="s">
+      <c r="B23" s="237"/>
+      <c r="C23" s="222" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="172" t="s">
+      <c r="D23" s="223"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172" t="s">
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="178"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="225"/>
       <c r="P23" s="55" t="s">
         <v>127</v>
       </c>
@@ -10523,91 +10817,91 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="201"/>
-      <c r="C24" s="168" t="s">
+      <c r="B24" s="237"/>
+      <c r="C24" s="222" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="172" t="s">
+      <c r="D24" s="223"/>
+      <c r="E24" s="223"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172" t="s">
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224" t="s">
         <v>34</v>
       </c>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="178"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="225"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="201"/>
-      <c r="C25" s="168" t="s">
+      <c r="B25" s="237"/>
+      <c r="C25" s="222" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="173" t="s">
+      <c r="D25" s="223"/>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172" t="s">
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="178"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="225"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="201"/>
-      <c r="C26" s="168" t="s">
+      <c r="B26" s="237"/>
+      <c r="C26" s="222" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="174" t="s">
+      <c r="D26" s="223"/>
+      <c r="E26" s="223"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171" t="s">
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
+      <c r="J26" s="226"/>
+      <c r="K26" s="226" t="s">
         <v>97</v>
       </c>
-      <c r="L26" s="171"/>
-      <c r="M26" s="171"/>
-      <c r="N26" s="179"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="226"/>
+      <c r="N26" s="255"/>
       <c r="P26" s="50" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="201"/>
-      <c r="C27" s="168" t="s">
+      <c r="B27" s="237"/>
+      <c r="C27" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="174" t="s">
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="266" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171" t="s">
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="226"/>
+      <c r="K27" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="171"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="179"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="255"/>
       <c r="P27" t="s">
         <v>28</v>
       </c>
@@ -10616,25 +10910,25 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="201"/>
-      <c r="C28" s="168" t="s">
+      <c r="B28" s="237"/>
+      <c r="C28" s="222" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="173" t="s">
+      <c r="D28" s="223"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="265" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172" t="s">
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="224" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="178"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="225"/>
       <c r="P28" t="s">
         <v>90</v>
       </c>
@@ -10643,25 +10937,25 @@
       </c>
     </row>
     <row r="29" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="201"/>
-      <c r="C29" s="168" t="s">
+      <c r="B29" s="237"/>
+      <c r="C29" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="172" t="s">
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172" t="s">
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="178"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="225"/>
       <c r="P29" t="s">
         <v>91</v>
       </c>
@@ -10670,25 +10964,25 @@
       </c>
     </row>
     <row r="30" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="201"/>
-      <c r="C30" s="168" t="s">
+      <c r="B30" s="237"/>
+      <c r="C30" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="172" t="s">
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172" t="s">
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="178"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="225"/>
       <c r="P30" t="s">
         <v>92</v>
       </c>
@@ -10697,25 +10991,25 @@
       </c>
     </row>
     <row r="31" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="201"/>
-      <c r="C31" s="168" t="s">
+      <c r="B31" s="237"/>
+      <c r="C31" s="222" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="171" t="s">
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171" t="s">
+      <c r="H31" s="226"/>
+      <c r="I31" s="226"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="L31" s="171"/>
-      <c r="M31" s="171"/>
-      <c r="N31" s="179"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="255"/>
       <c r="P31" t="s">
         <v>82</v>
       </c>
@@ -10724,91 +11018,91 @@
       </c>
     </row>
     <row r="32" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="201"/>
-      <c r="C32" s="168" t="s">
+      <c r="B32" s="237"/>
+      <c r="C32" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="172" t="s">
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172" t="s">
+      <c r="H32" s="224"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="224" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="178"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="225"/>
     </row>
     <row r="33" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="201"/>
-      <c r="C33" s="168" t="s">
+      <c r="B33" s="237"/>
+      <c r="C33" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="172" t="s">
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="224" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172" t="s">
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224" t="s">
         <v>37</v>
       </c>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="178"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="225"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="201"/>
-      <c r="C34" s="168" t="s">
+      <c r="B34" s="237"/>
+      <c r="C34" s="222" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="172" t="s">
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172" t="s">
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="178"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="224"/>
+      <c r="N34" s="225"/>
       <c r="P34" s="50" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="201"/>
-      <c r="C35" s="168" t="s">
+      <c r="B35" s="237"/>
+      <c r="C35" s="222" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="171" t="s">
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171" t="s">
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="171"/>
-      <c r="M35" s="171"/>
-      <c r="N35" s="179"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="255"/>
       <c r="P35" t="s">
         <v>30</v>
       </c>
@@ -10817,25 +11111,25 @@
       </c>
     </row>
     <row r="36" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="202"/>
-      <c r="C36" s="204" t="s">
+      <c r="B36" s="238"/>
+      <c r="C36" s="239" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="175" t="s">
+      <c r="D36" s="240"/>
+      <c r="E36" s="240"/>
+      <c r="F36" s="240"/>
+      <c r="G36" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175" t="s">
+      <c r="H36" s="256"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="256" t="s">
         <v>3</v>
       </c>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="180"/>
+      <c r="L36" s="256"/>
+      <c r="M36" s="256"/>
+      <c r="N36" s="257"/>
       <c r="P36" t="s">
         <v>114</v>
       </c>
@@ -10868,35 +11162,35 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="185" t="s">
+      <c r="B41" s="263" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="185"/>
-      <c r="D41" s="177" t="s">
+      <c r="C41" s="263"/>
+      <c r="D41" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="177" t="s">
+      <c r="E41" s="262" t="s">
         <v>147</v>
       </c>
-      <c r="F41" s="177" t="s">
+      <c r="F41" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="G41" s="177" t="s">
+      <c r="G41" s="262" t="s">
         <v>170</v>
       </c>
-      <c r="H41" s="177" t="s">
+      <c r="H41" s="262" t="s">
         <v>148</v>
       </c>
       <c r="I41" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="L41" s="177" t="s">
+      <c r="L41" s="262" t="s">
         <v>193</v>
       </c>
-      <c r="M41" s="177" t="s">
+      <c r="M41" s="262" t="s">
         <v>170</v>
       </c>
-      <c r="N41" s="177" t="s">
+      <c r="N41" s="262" t="s">
         <v>186</v>
       </c>
       <c r="P41" s="50" t="s">
@@ -10904,28 +11198,28 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
+      <c r="B42" s="263"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
+      <c r="H42" s="262"/>
       <c r="I42" s="141" t="s">
         <v>213</v>
       </c>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
+      <c r="L42" s="262"/>
+      <c r="M42" s="262"/>
+      <c r="N42" s="262"/>
       <c r="P42" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="164" t="s">
+      <c r="B43" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="187"/>
+      <c r="C43" s="264"/>
       <c r="D43" s="64" t="s">
         <v>25</v>
       </c>
@@ -10963,10 +11257,10 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="165"/>
+      <c r="C44" s="261"/>
       <c r="D44" s="64" t="s">
         <v>25</v>
       </c>
@@ -11004,10 +11298,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="164" t="s">
+      <c r="B45" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="165"/>
+      <c r="C45" s="261"/>
       <c r="D45" s="64" t="s">
         <v>25</v>
       </c>
@@ -11045,10 +11339,10 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="165"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="64" t="s">
         <v>25</v>
       </c>
@@ -11086,10 +11380,10 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="165"/>
+      <c r="C47" s="261"/>
       <c r="D47" s="64" t="s">
         <v>25</v>
       </c>
@@ -11124,10 +11418,10 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="164" t="s">
+      <c r="B48" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="165"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="64" t="s">
         <v>25</v>
       </c>
@@ -11168,10 +11462,10 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="165"/>
+      <c r="C49" s="261"/>
       <c r="D49" s="64" t="s">
         <v>25</v>
       </c>
@@ -11209,10 +11503,10 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="164" t="s">
+      <c r="B50" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="165"/>
+      <c r="C50" s="261"/>
       <c r="D50" s="64" t="s">
         <v>25</v>
       </c>
@@ -11256,10 +11550,10 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="165"/>
+      <c r="C51" s="261"/>
       <c r="D51" s="64" t="s">
         <v>25</v>
       </c>
@@ -11303,10 +11597,10 @@
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="165"/>
+      <c r="C52" s="261"/>
       <c r="D52" s="64" t="s">
         <v>25</v>
       </c>
@@ -11341,10 +11635,10 @@
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B53" s="164" t="s">
+      <c r="B53" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C53" s="165"/>
+      <c r="C53" s="261"/>
       <c r="D53" s="64" t="s">
         <v>25</v>
       </c>
@@ -11382,10 +11676,10 @@
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B54" s="164" t="s">
+      <c r="B54" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="165"/>
+      <c r="C54" s="261"/>
       <c r="D54" s="64" t="s">
         <v>25</v>
       </c>
@@ -11426,10 +11720,10 @@
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B55" s="164" t="s">
+      <c r="B55" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="165"/>
+      <c r="C55" s="261"/>
       <c r="D55" s="64" t="s">
         <v>25</v>
       </c>
@@ -11471,10 +11765,10 @@
       <c r="Q55" s="54"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="164" t="s">
+      <c r="B56" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="165"/>
+      <c r="C56" s="261"/>
       <c r="D56" s="64" t="s">
         <v>25</v>
       </c>
@@ -11518,10 +11812,10 @@
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="164" t="s">
+      <c r="B57" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C57" s="165"/>
+      <c r="C57" s="261"/>
       <c r="D57" s="64" t="s">
         <v>25</v>
       </c>
@@ -11565,10 +11859,10 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="164" t="s">
+      <c r="B58" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="165"/>
+      <c r="C58" s="261"/>
       <c r="D58" s="64" t="s">
         <v>25</v>
       </c>
@@ -11612,10 +11906,10 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="164" t="s">
+      <c r="B59" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="165"/>
+      <c r="C59" s="261"/>
       <c r="D59" s="64" t="s">
         <v>25</v>
       </c>
@@ -11653,10 +11947,10 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="166" t="s">
+      <c r="B60" s="267" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="167"/>
+      <c r="C60" s="268"/>
       <c r="D60" s="100" t="s">
         <v>25</v>
       </c>
@@ -11697,69 +11991,42 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="G3:N4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="B13:B36"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="H41:H42"/>
     <mergeCell ref="K34:N34"/>
     <mergeCell ref="K35:N35"/>
     <mergeCell ref="K36:N36"/>
@@ -11784,42 +12051,69 @@
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K24:N24"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="B13:B36"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="G3:N4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G29:N29 G33:N33">
@@ -11855,6 +12149,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11895,10 +12190,10 @@
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
-      <c r="Q2" s="239" t="s">
+      <c r="Q2" s="276" t="s">
         <v>209</v>
       </c>
-      <c r="R2" s="240"/>
+      <c r="R2" s="277"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -11909,13 +12204,13 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="241" t="s">
+      <c r="J3" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
       <c r="Q3" s="122" t="s">
         <v>201</v>
       </c>
@@ -11924,21 +12219,21 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="233"/>
-      <c r="D4" s="233"/>
-      <c r="E4" s="233"/>
-      <c r="F4" s="233"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="280"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
+      <c r="L4" s="279"/>
+      <c r="M4" s="279"/>
+      <c r="N4" s="279"/>
       <c r="Q4" s="122" t="s">
         <v>203</v>
       </c>
@@ -11947,23 +12242,23 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="233"/>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="234" t="s">
+      <c r="B5" s="280"/>
+      <c r="C5" s="280"/>
+      <c r="D5" s="280"/>
+      <c r="E5" s="280"/>
+      <c r="F5" s="280"/>
+      <c r="G5" s="281" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="234"/>
-      <c r="I5" s="234"/>
-      <c r="J5" s="235" t="s">
+      <c r="H5" s="281"/>
+      <c r="I5" s="281"/>
+      <c r="J5" s="282" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="236"/>
-      <c r="L5" s="236"/>
-      <c r="M5" s="236"/>
-      <c r="N5" s="236"/>
+      <c r="K5" s="283"/>
+      <c r="L5" s="283"/>
+      <c r="M5" s="283"/>
+      <c r="N5" s="283"/>
       <c r="Q5" s="122" t="s">
         <v>202</v>
       </c>
@@ -11977,16 +12272,16 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="234" t="s">
+      <c r="G6" s="281" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="234"/>
-      <c r="I6" s="234"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="238"/>
-      <c r="M6" s="238"/>
-      <c r="N6" s="238"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="285"/>
+      <c r="N6" s="285"/>
       <c r="Q6" s="124" t="s">
         <v>204</v>
       </c>
@@ -12003,17 +12298,17 @@
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="238"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="285"/>
+      <c r="N7" s="285"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q8" s="239" t="s">
+      <c r="Q8" s="276" t="s">
         <v>208</v>
       </c>
-      <c r="R8" s="240"/>
+      <c r="R8" s="277"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q9" s="126" t="s">
@@ -12051,10 +12346,10 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
-      <c r="Q14" s="239" t="s">
+      <c r="Q14" s="276" t="s">
         <v>207</v>
       </c>
-      <c r="R14" s="240"/>
+      <c r="R14" s="277"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="21"/>
@@ -12082,10 +12377,10 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q19" s="239" t="s">
+      <c r="Q19" s="276" t="s">
         <v>206</v>
       </c>
-      <c r="R19" s="240"/>
+      <c r="R19" s="277"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q20" s="122" t="s">
@@ -12097,18 +12392,18 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="12"/>
-      <c r="C21" s="215" t="s">
+      <c r="C21" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="215"/>
-      <c r="I21" s="217" t="s">
+      <c r="D21" s="290"/>
+      <c r="I21" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="J21" s="217"/>
-      <c r="K21" s="218" t="s">
+      <c r="J21" s="291"/>
+      <c r="K21" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="L21" s="218"/>
+      <c r="L21" s="292"/>
       <c r="Q21" s="122" t="s">
         <v>203</v>
       </c>
@@ -12139,18 +12434,18 @@
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="223" t="s">
+      <c r="D23" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="224"/>
-      <c r="F23" s="224"/>
-      <c r="G23" s="224"/>
-      <c r="H23" s="224"/>
-      <c r="I23" s="225"/>
-      <c r="J23" s="221" t="s">
+      <c r="E23" s="294"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
+      <c r="H23" s="294"/>
+      <c r="I23" s="295"/>
+      <c r="J23" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="222"/>
+      <c r="K23" s="297"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="Q23" s="124" t="s">
@@ -12162,22 +12457,22 @@
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C25" s="12"/>
-      <c r="D25" s="230" t="s">
+      <c r="D25" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="228" t="s">
+      <c r="E25" s="287"/>
+      <c r="F25" s="287"/>
+      <c r="G25" s="287"/>
+      <c r="H25" s="287"/>
+      <c r="I25" s="287"/>
+      <c r="J25" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="229"/>
-      <c r="Q25" s="239" t="s">
+      <c r="K25" s="289"/>
+      <c r="Q25" s="276" t="s">
         <v>205</v>
       </c>
-      <c r="R25" s="240"/>
+      <c r="R25" s="277"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -12212,10 +12507,10 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30" s="21"/>
-      <c r="Q30" s="239" t="s">
+      <c r="Q30" s="276" t="s">
         <v>211</v>
       </c>
-      <c r="R30" s="240"/>
+      <c r="R30" s="277"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31" s="21"/>
@@ -12245,22 +12540,22 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C39" s="216" t="s">
+      <c r="C39" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="215" t="s">
+      <c r="D39" s="300"/>
+      <c r="E39" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="215"/>
-      <c r="K39" s="217" t="s">
+      <c r="F39" s="290"/>
+      <c r="K39" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="217"/>
-      <c r="M39" s="218" t="s">
+      <c r="L39" s="291"/>
+      <c r="M39" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="N39" s="218"/>
+      <c r="N39" s="292"/>
     </row>
     <row r="40" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3"/>
@@ -12281,42 +12576,42 @@
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="219" t="s">
+      <c r="D41" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="220"/>
-      <c r="F41" s="223" t="s">
+      <c r="E41" s="302"/>
+      <c r="F41" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="221" t="s">
+      <c r="G41" s="294"/>
+      <c r="H41" s="294"/>
+      <c r="I41" s="294"/>
+      <c r="J41" s="294"/>
+      <c r="K41" s="295"/>
+      <c r="L41" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="222"/>
+      <c r="M41" s="297"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D43" s="226" t="s">
+      <c r="D43" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="227"/>
-      <c r="F43" s="230" t="s">
+      <c r="E43" s="299"/>
+      <c r="F43" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="231"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="228" t="s">
+      <c r="G43" s="287"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="287"/>
+      <c r="J43" s="287"/>
+      <c r="K43" s="287"/>
+      <c r="L43" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="229"/>
+      <c r="M43" s="289"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D44" s="8"/>
@@ -12327,8 +12622,8 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="218"/>
-      <c r="M44" s="232"/>
+      <c r="L44" s="292"/>
+      <c r="M44" s="303"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
@@ -12354,22 +12649,22 @@
       <c r="B52" s="21"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="216" t="s">
+      <c r="C57" s="300" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="216"/>
-      <c r="E57" s="215" t="s">
+      <c r="D57" s="300"/>
+      <c r="E57" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="215"/>
-      <c r="K57" s="217" t="s">
+      <c r="F57" s="290"/>
+      <c r="K57" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="L57" s="217"/>
-      <c r="M57" s="218" t="s">
+      <c r="L57" s="291"/>
+      <c r="M57" s="292" t="s">
         <v>2</v>
       </c>
-      <c r="N57" s="218"/>
+      <c r="N57" s="292"/>
     </row>
     <row r="58" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3"/>
@@ -12390,22 +12685,22 @@
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
-      <c r="D59" s="219" t="s">
+      <c r="D59" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="220"/>
-      <c r="F59" s="223" t="s">
+      <c r="E59" s="302"/>
+      <c r="F59" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="224"/>
-      <c r="H59" s="224"/>
-      <c r="I59" s="224"/>
-      <c r="J59" s="224"/>
-      <c r="K59" s="225"/>
-      <c r="L59" s="221" t="s">
+      <c r="G59" s="294"/>
+      <c r="H59" s="294"/>
+      <c r="I59" s="294"/>
+      <c r="J59" s="294"/>
+      <c r="K59" s="295"/>
+      <c r="L59" s="296" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="222"/>
+      <c r="M59" s="297"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
@@ -12426,22 +12721,22 @@
       <c r="O60" s="6"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D61" s="226" t="s">
+      <c r="D61" s="298" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="227"/>
-      <c r="F61" s="230" t="s">
+      <c r="E61" s="299"/>
+      <c r="F61" s="286" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="231"/>
-      <c r="H61" s="231"/>
-      <c r="I61" s="231"/>
-      <c r="J61" s="231"/>
-      <c r="K61" s="231"/>
-      <c r="L61" s="228" t="s">
+      <c r="G61" s="287"/>
+      <c r="H61" s="287"/>
+      <c r="I61" s="287"/>
+      <c r="J61" s="287"/>
+      <c r="K61" s="287"/>
+      <c r="L61" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="229"/>
+      <c r="M61" s="289"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
@@ -12508,50 +12803,50 @@
       <c r="K78" s="146"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D79" s="243" t="s">
+      <c r="D79" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="244"/>
-      <c r="F79" s="243" t="s">
+      <c r="E79" s="270"/>
+      <c r="F79" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="G79" s="244"/>
-      <c r="H79" s="243" t="s">
+      <c r="G79" s="270"/>
+      <c r="H79" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="244"/>
-      <c r="J79" s="243" t="s">
+      <c r="I79" s="270"/>
+      <c r="J79" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="K79" s="244"/>
+      <c r="K79" s="270"/>
     </row>
     <row r="80" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="248" t="s">
+      <c r="C80" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="D80" s="248"/>
+      <c r="D80" s="272"/>
       <c r="E80" s="161"/>
       <c r="F80" s="161"/>
       <c r="G80" s="161"/>
       <c r="H80" s="161"/>
       <c r="I80" s="161"/>
       <c r="J80" s="161"/>
-      <c r="K80" s="248" t="s">
+      <c r="K80" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="L80" s="248"/>
+      <c r="L80" s="272"/>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C81" s="248"/>
-      <c r="D81" s="248"/>
+      <c r="C81" s="272"/>
+      <c r="D81" s="272"/>
       <c r="E81" s="161"/>
       <c r="F81" s="161"/>
       <c r="G81" s="161"/>
       <c r="H81" s="161"/>
       <c r="I81" s="161"/>
       <c r="J81" s="161"/>
-      <c r="K81" s="248"/>
-      <c r="L81" s="248"/>
+      <c r="K81" s="272"/>
+      <c r="L81" s="272"/>
     </row>
     <row r="82" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K82" s="149"/>
@@ -12584,28 +12879,28 @@
       <c r="D90" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="E90" s="247" t="s">
+      <c r="E90" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="244"/>
-      <c r="G90" s="243" t="s">
+      <c r="F90" s="270"/>
+      <c r="G90" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="244"/>
-      <c r="I90" s="243" t="s">
+      <c r="H90" s="270"/>
+      <c r="I90" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="J90" s="244"/>
-      <c r="K90" s="243" t="s">
+      <c r="J90" s="270"/>
+      <c r="K90" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="L90" s="244"/>
+      <c r="L90" s="270"/>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C91" s="248" t="s">
+      <c r="C91" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="D91" s="248"/>
+      <c r="D91" s="272"/>
       <c r="E91" s="161"/>
       <c r="F91" s="161"/>
       <c r="G91" s="161"/>
@@ -12613,14 +12908,14 @@
       <c r="I91" s="161"/>
       <c r="J91" s="161"/>
       <c r="K91" s="161"/>
-      <c r="L91" s="248" t="s">
+      <c r="L91" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="M91" s="248"/>
+      <c r="M91" s="272"/>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C92" s="248"/>
-      <c r="D92" s="248"/>
+      <c r="C92" s="272"/>
+      <c r="D92" s="272"/>
       <c r="E92" s="161"/>
       <c r="F92" s="161"/>
       <c r="G92" s="161"/>
@@ -12628,8 +12923,8 @@
       <c r="I92" s="161"/>
       <c r="J92" s="161"/>
       <c r="K92" s="161"/>
-      <c r="L92" s="248"/>
-      <c r="M92" s="248"/>
+      <c r="L92" s="272"/>
+      <c r="M92" s="272"/>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N95" s="2" t="s">
@@ -12658,28 +12953,28 @@
       <c r="D101" s="148" t="s">
         <v>217</v>
       </c>
-      <c r="E101" s="245" t="s">
+      <c r="E101" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F101" s="246"/>
-      <c r="G101" s="247" t="s">
+      <c r="F101" s="274"/>
+      <c r="G101" s="275" t="s">
         <v>4</v>
       </c>
-      <c r="H101" s="244"/>
-      <c r="I101" s="243" t="s">
+      <c r="H101" s="270"/>
+      <c r="I101" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="244"/>
-      <c r="K101" s="243" t="s">
+      <c r="J101" s="270"/>
+      <c r="K101" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="244"/>
+      <c r="L101" s="270"/>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C102" s="248" t="s">
+      <c r="C102" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="248"/>
+      <c r="D102" s="272"/>
       <c r="E102" s="161"/>
       <c r="F102" s="161"/>
       <c r="G102" s="161"/>
@@ -12687,14 +12982,14 @@
       <c r="I102" s="161"/>
       <c r="J102" s="161"/>
       <c r="K102" s="161"/>
-      <c r="L102" s="248" t="s">
+      <c r="L102" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="M102" s="248"/>
+      <c r="M102" s="272"/>
     </row>
     <row r="103" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="248"/>
-      <c r="D103" s="248"/>
+      <c r="C103" s="272"/>
+      <c r="D103" s="272"/>
       <c r="E103" s="161"/>
       <c r="F103" s="161"/>
       <c r="G103" s="161"/>
@@ -12702,8 +12997,8 @@
       <c r="I103" s="161"/>
       <c r="J103" s="161"/>
       <c r="K103" s="161"/>
-      <c r="L103" s="248"/>
-      <c r="M103" s="248"/>
+      <c r="L103" s="272"/>
+      <c r="M103" s="272"/>
     </row>
     <row r="107" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N107" s="2" t="s">
@@ -12726,50 +13021,50 @@
       <c r="K112" s="146"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D113" s="243" t="s">
+      <c r="D113" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="244"/>
-      <c r="F113" s="243" t="s">
+      <c r="E113" s="270"/>
+      <c r="F113" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="244"/>
-      <c r="H113" s="243" t="s">
+      <c r="G113" s="270"/>
+      <c r="H113" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="I113" s="244"/>
-      <c r="J113" s="243" t="s">
+      <c r="I113" s="270"/>
+      <c r="J113" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="K113" s="244"/>
+      <c r="K113" s="270"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C114" s="248" t="s">
+      <c r="C114" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="D114" s="248"/>
+      <c r="D114" s="272"/>
       <c r="E114" s="161"/>
       <c r="F114" s="161"/>
       <c r="G114" s="161"/>
       <c r="H114" s="161"/>
       <c r="I114" s="161"/>
       <c r="J114" s="161"/>
-      <c r="K114" s="248" t="s">
+      <c r="K114" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="L114" s="248"/>
+      <c r="L114" s="272"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C115" s="248"/>
-      <c r="D115" s="248"/>
+      <c r="C115" s="272"/>
+      <c r="D115" s="272"/>
       <c r="E115" s="161"/>
       <c r="F115" s="161"/>
       <c r="G115" s="161"/>
       <c r="H115" s="161"/>
       <c r="I115" s="161"/>
       <c r="J115" s="161"/>
-      <c r="K115" s="248"/>
-      <c r="L115" s="248"/>
+      <c r="K115" s="272"/>
+      <c r="L115" s="272"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N118" s="2" t="s">
@@ -12795,31 +13090,31 @@
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C124" s="243" t="s">
+      <c r="C124" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="244"/>
-      <c r="E124" s="243" t="s">
+      <c r="D124" s="270"/>
+      <c r="E124" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="F124" s="244"/>
-      <c r="G124" s="243" t="s">
+      <c r="F124" s="270"/>
+      <c r="G124" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="H124" s="244"/>
-      <c r="I124" s="243" t="s">
+      <c r="H124" s="270"/>
+      <c r="I124" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="J124" s="249"/>
+      <c r="J124" s="271"/>
       <c r="K124" s="150" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B125" s="248" t="s">
+      <c r="B125" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="C125" s="248"/>
+      <c r="C125" s="272"/>
       <c r="D125" s="161"/>
       <c r="E125" s="161"/>
       <c r="F125" s="161"/>
@@ -12827,14 +13122,14 @@
       <c r="H125" s="161"/>
       <c r="I125" s="161"/>
       <c r="J125" s="161"/>
-      <c r="K125" s="248" t="s">
+      <c r="K125" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="L125" s="248"/>
+      <c r="L125" s="272"/>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B126" s="248"/>
-      <c r="C126" s="248"/>
+      <c r="B126" s="272"/>
+      <c r="C126" s="272"/>
       <c r="D126" s="161"/>
       <c r="E126" s="161"/>
       <c r="F126" s="161"/>
@@ -12842,8 +13137,8 @@
       <c r="H126" s="161"/>
       <c r="I126" s="161"/>
       <c r="J126" s="161"/>
-      <c r="K126" s="248"/>
-      <c r="L126" s="248"/>
+      <c r="K126" s="272"/>
+      <c r="L126" s="272"/>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N129" s="2" t="s">
@@ -12870,18 +13165,18 @@
       <c r="L134" s="153"/>
     </row>
     <row r="135" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C135" s="243" t="s">
+      <c r="C135" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="244"/>
-      <c r="E135" s="243" t="s">
+      <c r="D135" s="270"/>
+      <c r="E135" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="244"/>
-      <c r="G135" s="243" t="s">
+      <c r="F135" s="270"/>
+      <c r="G135" s="269" t="s">
         <v>4</v>
       </c>
-      <c r="H135" s="249"/>
+      <c r="H135" s="271"/>
       <c r="I135" s="148" t="s">
         <v>4</v>
       </c>
@@ -12892,10 +13187,10 @@
       <c r="L135" s="153"/>
     </row>
     <row r="136" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B136" s="248" t="s">
+      <c r="B136" s="272" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="248"/>
+      <c r="C136" s="272"/>
       <c r="D136" s="161"/>
       <c r="E136" s="161"/>
       <c r="F136" s="161"/>
@@ -12903,14 +13198,14 @@
       <c r="H136" s="161"/>
       <c r="I136" s="161"/>
       <c r="J136" s="161"/>
-      <c r="K136" s="248" t="s">
+      <c r="K136" s="272" t="s">
         <v>216</v>
       </c>
-      <c r="L136" s="248"/>
+      <c r="L136" s="272"/>
     </row>
     <row r="137" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B137" s="248"/>
-      <c r="C137" s="248"/>
+      <c r="B137" s="272"/>
+      <c r="C137" s="272"/>
       <c r="D137" s="161"/>
       <c r="E137" s="161"/>
       <c r="F137" s="161"/>
@@ -12918,65 +13213,18 @@
       <c r="H137" s="161"/>
       <c r="I137" s="161"/>
       <c r="J137" s="161"/>
-      <c r="K137" s="248"/>
-      <c r="L137" s="248"/>
+      <c r="K137" s="272"/>
+      <c r="L137" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="K136:L137"/>
-    <mergeCell ref="B136:C137"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="K125:L126"/>
-    <mergeCell ref="B125:C126"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="K114:L115"/>
-    <mergeCell ref="L102:M103"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="K80:L81"/>
-    <mergeCell ref="L91:M92"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="J3:N4"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:N7"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="F41:K41"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="L43:M43"/>
@@ -12991,13 +13239,60 @@
     <mergeCell ref="F59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="L44:M44"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:N7"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="J3:N4"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="L102:M103"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="K80:L81"/>
+    <mergeCell ref="L91:M92"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="K114:L115"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="K125:L126"/>
+    <mergeCell ref="B125:C126"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="K136:L137"/>
+    <mergeCell ref="B136:C137"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R15 R26 R9 R21 R4 R31">
@@ -13044,10 +13339,10 @@
       <c r="H2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="250" t="s">
+      <c r="J2" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="251"/>
+      <c r="K2" s="305"/>
       <c r="M2" s="18" t="s">
         <v>78</v>
       </c>
@@ -13114,10 +13409,10 @@
       <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="250" t="s">
+      <c r="B6" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="251"/>
+      <c r="C6" s="305"/>
       <c r="E6" s="18" t="s">
         <v>78</v>
       </c>
@@ -13827,35 +14122,35 @@
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="185" t="s">
+      <c r="B5" s="263" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="177" t="s">
+      <c r="C5" s="263"/>
+      <c r="D5" s="262" t="s">
         <v>149</v>
       </c>
-      <c r="E5" s="177" t="s">
+      <c r="E5" s="262" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="177" t="s">
+      <c r="F5" s="262" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="177" t="s">
+      <c r="G5" s="262" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="177" t="s">
+      <c r="H5" s="262" t="s">
         <v>148</v>
       </c>
       <c r="I5" s="106" t="s">
         <v>212</v>
       </c>
-      <c r="J5" s="253" t="s">
+      <c r="J5" s="306" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="253" t="s">
+      <c r="K5" s="306" t="s">
         <v>186</v>
       </c>
-      <c r="L5" s="253" t="s">
+      <c r="L5" s="306" t="s">
         <v>229</v>
       </c>
       <c r="N5" s="92" t="s">
@@ -13894,19 +14189,19 @@
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="177"/>
-      <c r="F6" s="177"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="262"/>
+      <c r="E6" s="262"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="262"/>
+      <c r="H6" s="262"/>
       <c r="I6" s="106" t="s">
         <v>213</v>
       </c>
-      <c r="J6" s="253"/>
-      <c r="K6" s="253"/>
-      <c r="L6" s="253"/>
+      <c r="J6" s="306"/>
+      <c r="K6" s="306"/>
+      <c r="L6" s="306"/>
       <c r="N6" s="92"/>
       <c r="O6" s="86">
         <v>0.5</v>
@@ -13941,10 +14236,10 @@
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="187"/>
+      <c r="C7" s="264"/>
       <c r="D7" s="73" t="s">
         <v>26</v>
       </c>
@@ -13969,11 +14264,11 @@
         <v>8017.8515798389953</v>
       </c>
       <c r="K7" s="157">
-        <f t="shared" ref="K7:K24" ca="1" si="1">(VLOOKUP($H7,FloatLeg,6,0)+($G7/10000)*VLOOKUP($H7,FloatLeg,5,0))/VLOOKUP($H7,FixedLeg,4,0)</f>
+        <f ca="1">(VLOOKUP($H7,FloatLeg,6,0)+($G7/10000)*VLOOKUP($H7,FloatLeg,5,0))/VLOOKUP($H7,FixedLeg,4,0)</f>
         <v>1.9218137107680133E-3</v>
       </c>
       <c r="L7" s="159">
-        <f t="shared" ref="L7:L24" ca="1" si="2">IF($D7="PAY",-1,1)*$E7*VLOOKUP($H7,FixedLeg,4,0)*0.01%</f>
+        <f t="shared" ref="L7:L24" ca="1" si="1">IF($D7="PAY",-1,1)*$E7*VLOOKUP($H7,FixedLeg,4,0)*0.01%</f>
         <v>99.253115647092528</v>
       </c>
       <c r="N7" s="92" t="s">
@@ -14014,10 +14309,10 @@
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="252" t="s">
+      <c r="B8" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="165"/>
+      <c r="C8" s="261"/>
       <c r="D8" s="73" t="s">
         <v>26</v>
       </c>
@@ -14038,15 +14333,15 @@
         <v>USD_SB3_2Y:0</v>
       </c>
       <c r="J8" s="71">
-        <f t="shared" ref="J8:J24" ca="1" si="3">IF($D8="PAY",-1,1)*$E8*($F8*VLOOKUP($H8,FixedLeg,4,0)-VLOOKUP($H8,FloatLeg,6,0)-($G8/10000)*VLOOKUP($H8,FloatLeg,5,0))</f>
+        <f ca="1">IF($D8="PAY",-1,1)*$E8*($F8*VLOOKUP($H8,FixedLeg,4,0)-VLOOKUP($H8,FloatLeg,6,0)-($G8/10000)*VLOOKUP($H8,FloatLeg,5,0))</f>
         <v>14721.408818582631</v>
       </c>
       <c r="K8" s="157">
+        <f ca="1">(VLOOKUP($H8,FloatLeg,6,0)+($G8/10000)*VLOOKUP($H8,FloatLeg,5,0))/VLOOKUP($H8,FixedLeg,4,0)</f>
+        <v>2.5468257833359807E-3</v>
+      </c>
+      <c r="L8" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>2.5468257833359807E-3</v>
-      </c>
-      <c r="L8" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>197.51864629258341</v>
       </c>
       <c r="N8" s="92"/>
@@ -14083,10 +14378,10 @@
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="165"/>
+      <c r="C9" s="261"/>
       <c r="D9" s="73" t="s">
         <v>26</v>
       </c>
@@ -14107,15 +14402,15 @@
         <v>USD_SB3_3Y:0</v>
       </c>
       <c r="J9" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D9="PAY",-1,1)*$E9*($F9*VLOOKUP($H9,FixedLeg,4,0)-VLOOKUP($H9,FloatLeg,6,0)-($G9/10000)*VLOOKUP($H9,FloatLeg,5,0))</f>
         <v>20510.862081353545</v>
       </c>
       <c r="K9" s="157">
+        <f ca="1">(VLOOKUP($H9,FloatLeg,6,0)+($G9/10000)*VLOOKUP($H9,FloatLeg,5,0))/VLOOKUP($H9,FixedLeg,4,0)</f>
+        <v>3.0425998929245871E-3</v>
+      </c>
+      <c r="L9" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0425998929245871E-3</v>
-      </c>
-      <c r="L9" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>294.80641857142547</v>
       </c>
       <c r="N9" s="92" t="s">
@@ -14154,10 +14449,10 @@
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="252" t="s">
+      <c r="B10" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="165"/>
+      <c r="C10" s="261"/>
       <c r="D10" s="73" t="s">
         <v>26</v>
       </c>
@@ -14178,15 +14473,15 @@
         <v>USD_SB3_4Y:0</v>
       </c>
       <c r="J10" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D10="PAY",-1,1)*$E10*($F10*VLOOKUP($H10,FixedLeg,4,0)-VLOOKUP($H10,FloatLeg,6,0)-($G10/10000)*VLOOKUP($H10,FloatLeg,5,0))</f>
         <v>25556.332323178594</v>
       </c>
       <c r="K10" s="157">
+        <f ca="1">(VLOOKUP($H10,FloatLeg,6,0)+($G10/10000)*VLOOKUP($H10,FloatLeg,5,0))/VLOOKUP($H10,FixedLeg,4,0)</f>
+        <v>3.4659619199347257E-3</v>
+      </c>
+      <c r="L10" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4659619199347257E-3</v>
-      </c>
-      <c r="L10" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>391.12616134191995</v>
       </c>
       <c r="N10" s="92"/>
@@ -14223,10 +14518,10 @@
       </c>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="252" t="s">
+      <c r="B11" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="165"/>
+      <c r="C11" s="261"/>
       <c r="D11" s="73" t="s">
         <v>26</v>
       </c>
@@ -14247,15 +14542,15 @@
         <v>USD_SB3_5Y:0</v>
       </c>
       <c r="J11" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D11="PAY",-1,1)*$E11*($F11*VLOOKUP($H11,FixedLeg,4,0)-VLOOKUP($H11,FloatLeg,6,0)-($G11/10000)*VLOOKUP($H11,FloatLeg,5,0))</f>
         <v>29961.773752414294</v>
       </c>
       <c r="K11" s="157">
+        <f ca="1">(VLOOKUP($H11,FloatLeg,6,0)+($G11/10000)*VLOOKUP($H11,FloatLeg,5,0))/VLOOKUP($H11,FixedLeg,4,0)</f>
+        <v>3.8412038660142257E-3</v>
+      </c>
+      <c r="L11" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>3.8412038660142257E-3</v>
-      </c>
-      <c r="L11" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>486.48750665861064</v>
       </c>
       <c r="N11" s="92" t="s">
@@ -14296,10 +14591,10 @@
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="252" t="s">
+      <c r="B12" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="165"/>
+      <c r="C12" s="261"/>
       <c r="D12" s="73" t="s">
         <v>26</v>
       </c>
@@ -14320,15 +14615,15 @@
         <v>USD_SB3_6Y:0</v>
       </c>
       <c r="J12" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D12="PAY",-1,1)*$E12*($F12*VLOOKUP($H12,FixedLeg,4,0)-VLOOKUP($H12,FloatLeg,6,0)-($G12/10000)*VLOOKUP($H12,FloatLeg,5,0))</f>
         <v>33800.165829430465</v>
       </c>
       <c r="K12" s="157">
+        <f ca="1">(VLOOKUP($H12,FloatLeg,6,0)+($G12/10000)*VLOOKUP($H12,FloatLeg,5,0))/VLOOKUP($H12,FixedLeg,4,0)</f>
+        <v>4.1814139493039195E-3</v>
+      </c>
+      <c r="L12" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1814139493039195E-3</v>
-      </c>
-      <c r="L12" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>580.89999073549711</v>
       </c>
       <c r="N12" s="92"/>
@@ -14365,10 +14660,10 @@
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="252" t="s">
+      <c r="B13" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="165"/>
+      <c r="C13" s="261"/>
       <c r="D13" s="73" t="s">
         <v>26</v>
       </c>
@@ -14389,15 +14684,15 @@
         <v>USD_SB3_7Y:0</v>
       </c>
       <c r="J13" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D13="PAY",-1,1)*$E13*($F13*VLOOKUP($H13,FixedLeg,4,0)-VLOOKUP($H13,FloatLeg,6,0)-($G13/10000)*VLOOKUP($H13,FloatLeg,5,0))</f>
         <v>37126.865168246892</v>
       </c>
       <c r="K13" s="157">
+        <f ca="1">(VLOOKUP($H13,FloatLeg,6,0)+($G13/10000)*VLOOKUP($H13,FloatLeg,5,0))/VLOOKUP($H13,FixedLeg,4,0)</f>
+        <v>4.4946102311619286E-3</v>
+      </c>
+      <c r="L13" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4946102311619286E-3</v>
-      </c>
-      <c r="L13" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>674.37305489966479</v>
       </c>
       <c r="N13" s="92" t="s">
@@ -14436,10 +14731,10 @@
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="252" t="s">
+      <c r="B14" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="165"/>
+      <c r="C14" s="261"/>
       <c r="D14" s="73" t="s">
         <v>26</v>
       </c>
@@ -14460,15 +14755,15 @@
         <v>USD_SB3_8Y:0</v>
       </c>
       <c r="J14" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D14="PAY",-1,1)*$E14*($F14*VLOOKUP($H14,FixedLeg,4,0)-VLOOKUP($H14,FloatLeg,6,0)-($G14/10000)*VLOOKUP($H14,FloatLeg,5,0))</f>
         <v>39986.004359538121</v>
       </c>
       <c r="K14" s="157">
+        <f ca="1">(VLOOKUP($H14,FloatLeg,6,0)+($G14/10000)*VLOOKUP($H14,FloatLeg,5,0))/VLOOKUP($H14,FixedLeg,4,0)</f>
+        <v>4.7861301715909329E-3</v>
+      </c>
+      <c r="L14" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7861301715909329E-3</v>
-      </c>
-      <c r="L14" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>766.91604653542413</v>
       </c>
       <c r="N14" s="92"/>
@@ -14505,10 +14800,10 @@
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="252" t="s">
+      <c r="B15" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="165"/>
+      <c r="C15" s="261"/>
       <c r="D15" s="73" t="s">
         <v>26</v>
       </c>
@@ -14529,15 +14824,15 @@
         <v>USD_SB3_9Y:0</v>
       </c>
       <c r="J15" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D15="PAY",-1,1)*$E15*($F15*VLOOKUP($H15,FixedLeg,4,0)-VLOOKUP($H15,FloatLeg,6,0)-($G15/10000)*VLOOKUP($H15,FloatLeg,5,0))</f>
         <v>42414.012023313415</v>
       </c>
       <c r="K15" s="157">
+        <f ca="1">(VLOOKUP($H15,FloatLeg,6,0)+($G15/10000)*VLOOKUP($H15,FloatLeg,5,0))/VLOOKUP($H15,FixedLeg,4,0)</f>
+        <v>5.0597409603532987E-3</v>
+      </c>
+      <c r="L15" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>5.0597409603532987E-3</v>
-      </c>
-      <c r="L15" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>858.53822001905837</v>
       </c>
       <c r="N15" s="92" t="s">
@@ -14578,10 +14873,10 @@
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="165"/>
+      <c r="C16" s="261"/>
       <c r="D16" s="73" t="s">
         <v>26</v>
       </c>
@@ -14602,15 +14897,15 @@
         <v>USD_SB3_10Y:0</v>
       </c>
       <c r="J16" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D16="PAY",-1,1)*$E16*($F16*VLOOKUP($H16,FixedLeg,4,0)-VLOOKUP($H16,FloatLeg,6,0)-($G16/10000)*VLOOKUP($H16,FloatLeg,5,0))</f>
         <v>44441.73768395152</v>
       </c>
       <c r="K16" s="157">
+        <f ca="1">(VLOOKUP($H16,FloatLeg,6,0)+($G16/10000)*VLOOKUP($H16,FloatLeg,5,0))/VLOOKUP($H16,FixedLeg,4,0)</f>
+        <v>5.3182199858130214E-3</v>
+      </c>
+      <c r="L16" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>5.3182199858130214E-3</v>
-      </c>
-      <c r="L16" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>949.24873764426786</v>
       </c>
       <c r="N16" s="92"/>
@@ -14647,10 +14942,10 @@
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B17" s="252" t="s">
+      <c r="B17" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="165"/>
+      <c r="C17" s="261"/>
       <c r="D17" s="73" t="s">
         <v>26</v>
       </c>
@@ -14671,15 +14966,15 @@
         <v>USD_SB3_11Y:0</v>
       </c>
       <c r="J17" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D17="PAY",-1,1)*$E17*($F17*VLOOKUP($H17,FixedLeg,4,0)-VLOOKUP($H17,FloatLeg,6,0)-($G17/10000)*VLOOKUP($H17,FloatLeg,5,0))</f>
         <v>46095.823851305518</v>
       </c>
       <c r="K17" s="157">
+        <f ca="1">(VLOOKUP($H17,FloatLeg,6,0)+($G17/10000)*VLOOKUP($H17,FloatLeg,5,0))/VLOOKUP($H17,FixedLeg,4,0)</f>
+        <v>5.5636852966431498E-3</v>
+      </c>
+      <c r="L17" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5636852966431498E-3</v>
-      </c>
-      <c r="L17" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1039.0566705384076</v>
       </c>
       <c r="N17" s="92" t="s">
@@ -14718,10 +15013,10 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B18" s="252" t="s">
+      <c r="B18" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="165"/>
+      <c r="C18" s="261"/>
       <c r="D18" s="73" t="s">
         <v>26</v>
       </c>
@@ -14742,15 +15037,15 @@
         <v>USD_SB3_12Y:0</v>
       </c>
       <c r="J18" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D18="PAY",-1,1)*$E18*($F18*VLOOKUP($H18,FixedLeg,4,0)-VLOOKUP($H18,FloatLeg,6,0)-($G18/10000)*VLOOKUP($H18,FloatLeg,5,0))</f>
         <v>47399.638680636388</v>
       </c>
       <c r="K18" s="157">
+        <f ca="1">(VLOOKUP($H18,FloatLeg,6,0)+($G18/10000)*VLOOKUP($H18,FloatLeg,5,0))/VLOOKUP($H18,FixedLeg,4,0)</f>
+        <v>5.7977963353027361E-3</v>
+      </c>
+      <c r="L18" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>5.7977963353027361E-3</v>
-      </c>
-      <c r="L18" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1127.9709995696071</v>
       </c>
       <c r="N18" s="92"/>
@@ -14787,10 +15082,10 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="252" t="s">
+      <c r="B19" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="165"/>
+      <c r="C19" s="261"/>
       <c r="D19" s="73" t="s">
         <v>26</v>
       </c>
@@ -14811,15 +15106,15 @@
         <v>USD_SB3_13Y:0</v>
       </c>
       <c r="J19" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D19="PAY",-1,1)*$E19*($F19*VLOOKUP($H19,FixedLeg,4,0)-VLOOKUP($H19,FloatLeg,6,0)-($G19/10000)*VLOOKUP($H19,FloatLeg,5,0))</f>
         <v>48373.936159503304</v>
       </c>
       <c r="K19" s="157">
+        <f ca="1">(VLOOKUP($H19,FloatLeg,6,0)+($G19/10000)*VLOOKUP($H19,FloatLeg,5,0))/VLOOKUP($H19,FixedLeg,4,0)</f>
+        <v>6.021882266072612E-3</v>
+      </c>
+      <c r="L19" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>6.021882266072612E-3</v>
-      </c>
-      <c r="L19" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1216.0006162448649</v>
       </c>
       <c r="N19" s="92" t="s">
@@ -14860,10 +15155,10 @@
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="252" t="s">
+      <c r="B20" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="165"/>
+      <c r="C20" s="261"/>
       <c r="D20" s="73" t="s">
         <v>26</v>
       </c>
@@ -14884,15 +15179,15 @@
         <v>USD_SB3_14Y:0</v>
       </c>
       <c r="J20" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D20="PAY",-1,1)*$E20*($F20*VLOOKUP($H20,FixedLeg,4,0)-VLOOKUP($H20,FloatLeg,6,0)-($G20/10000)*VLOOKUP($H20,FloatLeg,5,0))</f>
         <v>49037.339032949531</v>
       </c>
       <c r="K20" s="157">
+        <f ca="1">(VLOOKUP($H20,FloatLeg,6,0)+($G20/10000)*VLOOKUP($H20,FloatLeg,5,0))/VLOOKUP($H20,FixedLeg,4,0)</f>
+        <v>6.2370274843955263E-3</v>
+      </c>
+      <c r="L20" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2370274843955263E-3</v>
-      </c>
-      <c r="L20" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1303.1543235992071</v>
       </c>
       <c r="N20" s="92"/>
@@ -14929,10 +15224,10 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="252" t="s">
+      <c r="B21" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="165"/>
+      <c r="C21" s="261"/>
       <c r="D21" s="73" t="s">
         <v>26</v>
       </c>
@@ -14953,15 +15248,15 @@
         <v>USD_SB3_15Y:0</v>
       </c>
       <c r="J21" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D21="PAY",-1,1)*$E21*($F21*VLOOKUP($H21,FixedLeg,4,0)-VLOOKUP($H21,FloatLeg,6,0)-($G21/10000)*VLOOKUP($H21,FloatLeg,5,0))</f>
         <v>49406.701805168705</v>
       </c>
       <c r="K21" s="157">
+        <f ca="1">(VLOOKUP($H21,FloatLeg,6,0)+($G21/10000)*VLOOKUP($H21,FloatLeg,5,0))/VLOOKUP($H21,FixedLeg,4,0)</f>
+        <v>6.4441305821165851E-3</v>
+      </c>
+      <c r="L21" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4441305821165851E-3</v>
-      </c>
-      <c r="L21" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1389.440837075997</v>
       </c>
       <c r="N21" s="92" t="s">
@@ -15000,10 +15295,10 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="252" t="s">
+      <c r="B22" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="165"/>
+      <c r="C22" s="261"/>
       <c r="D22" s="73" t="s">
         <v>26</v>
       </c>
@@ -15024,15 +15319,15 @@
         <v>USD_SB3_20Y:0</v>
       </c>
       <c r="J22" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D22="PAY",-1,1)*$E22*($F22*VLOOKUP($H22,FixedLeg,4,0)-VLOOKUP($H22,FloatLeg,6,0)-($G22/10000)*VLOOKUP($H22,FloatLeg,5,0))</f>
         <v>47339.694657125561</v>
       </c>
       <c r="K22" s="157">
+        <f ca="1">(VLOOKUP($H22,FloatLeg,6,0)+($G22/10000)*VLOOKUP($H22,FloatLeg,5,0))/VLOOKUP($H22,FixedLeg,4,0)</f>
+        <v>7.3818922848109866E-3</v>
+      </c>
+      <c r="L22" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3818922848109866E-3</v>
-      </c>
-      <c r="L22" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>1808.1645144882013</v>
       </c>
       <c r="N22" s="92"/>
@@ -15069,10 +15364,10 @@
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="252" t="s">
+      <c r="B23" s="307" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="165"/>
+      <c r="C23" s="261"/>
       <c r="D23" s="73" t="s">
         <v>26</v>
       </c>
@@ -15093,15 +15388,15 @@
         <v>USD_SB3_25Y:0</v>
       </c>
       <c r="J23" s="71">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D23="PAY",-1,1)*$E23*($F23*VLOOKUP($H23,FixedLeg,4,0)-VLOOKUP($H23,FloatLeg,6,0)-($G23/10000)*VLOOKUP($H23,FloatLeg,5,0))</f>
         <v>39792.70379859276</v>
       </c>
       <c r="K23" s="157">
+        <f ca="1">(VLOOKUP($H23,FloatLeg,6,0)+($G23/10000)*VLOOKUP($H23,FloatLeg,5,0))/VLOOKUP($H23,FixedLeg,4,0)</f>
+        <v>8.1965419171732227E-3</v>
+      </c>
+      <c r="L23" s="159">
         <f t="shared" ca="1" si="1"/>
-        <v>8.1965419171732227E-3</v>
-      </c>
-      <c r="L23" s="159">
-        <f t="shared" ca="1" si="2"/>
         <v>2206.4667971778354</v>
       </c>
       <c r="N23" s="92" t="s">
@@ -15142,10 +15437,10 @@
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="254" t="s">
+      <c r="B24" s="308" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="255"/>
+      <c r="C24" s="309"/>
       <c r="D24" s="74" t="s">
         <v>26</v>
       </c>
@@ -15166,15 +15461,15 @@
         <v>USD_SB3_30Y:0</v>
       </c>
       <c r="J24" s="72">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF($D24="PAY",-1,1)*$E24*($F24*VLOOKUP($H24,FixedLeg,4,0)-VLOOKUP($H24,FloatLeg,6,0)-($G24/10000)*VLOOKUP($H24,FloatLeg,5,0))</f>
         <v>27869.899853389168</v>
       </c>
       <c r="K24" s="158">
+        <f ca="1">(VLOOKUP($H24,FloatLeg,6,0)+($G24/10000)*VLOOKUP($H24,FloatLeg,5,0))/VLOOKUP($H24,FixedLeg,4,0)</f>
+        <v>8.9220040488033042E-3</v>
+      </c>
+      <c r="L24" s="160">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9220040488033042E-3</v>
-      </c>
-      <c r="L24" s="160">
-        <f t="shared" ca="1" si="2"/>
         <v>2585.3436483180167</v>
       </c>
       <c r="N24" s="92"/>
@@ -18157,17 +18452,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="J5:J6"/>
@@ -18184,6 +18468,17 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D24">
@@ -18215,10 +18510,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="256" t="s">
+      <c r="B2" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="J2" s="257" t="s">
+      <c r="J2" s="165" t="s">
         <v>272</v>
       </c>
       <c r="K2" s="50"/>
@@ -18227,13 +18522,13 @@
       <c r="B3" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="J3" s="258" t="s">
+      <c r="J3" s="166" t="s">
         <v>235</v>
       </c>
       <c r="K3" s="50"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="259"/>
+      <c r="B4" s="167"/>
       <c r="J4" s="163"/>
       <c r="K4" s="50"/>
     </row>
@@ -18253,7 +18548,7 @@
       <c r="G5" s="163" t="s">
         <v>240</v>
       </c>
-      <c r="J5" s="307">
+      <c r="J5" s="215">
         <v>1E-4</v>
       </c>
       <c r="L5" s="163"/>
@@ -18262,135 +18557,135 @@
       <c r="B6" s="163" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="260">
+      <c r="C6" s="168">
         <v>1</v>
       </c>
-      <c r="D6" s="261">
+      <c r="D6" s="169">
         <v>0</v>
       </c>
-      <c r="E6" s="261">
+      <c r="E6" s="169">
         <v>0</v>
       </c>
-      <c r="F6" s="261">
+      <c r="F6" s="169">
         <v>0</v>
       </c>
-      <c r="G6" s="262">
+      <c r="G6" s="170">
         <v>0</v>
       </c>
       <c r="L6" s="163"/>
-      <c r="N6" s="263"/>
-      <c r="O6" s="263"/>
-      <c r="P6" s="263"/>
-      <c r="Q6" s="263"/>
-      <c r="R6" s="263"/>
-      <c r="S6" s="263"/>
-      <c r="T6" s="306"/>
+      <c r="N6" s="171"/>
+      <c r="O6" s="171"/>
+      <c r="P6" s="171"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="214"/>
     </row>
     <row r="7" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="163" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="264">
+      <c r="C7" s="172">
         <v>-1.013100581860171</v>
       </c>
-      <c r="D7" s="265">
+      <c r="D7" s="173">
         <v>2.0131005818601713</v>
       </c>
-      <c r="E7" s="266">
+      <c r="E7" s="174">
         <v>0</v>
       </c>
-      <c r="F7" s="266">
+      <c r="F7" s="174">
         <v>0</v>
       </c>
-      <c r="G7" s="267">
+      <c r="G7" s="175">
         <v>0</v>
       </c>
-      <c r="J7" s="271" t="s">
+      <c r="J7" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="272"/>
+      <c r="K7" s="180"/>
       <c r="L7" s="163"/>
-      <c r="M7" s="272"/>
-      <c r="N7" s="272"/>
-      <c r="Q7" s="272"/>
-      <c r="S7" s="263"/>
-      <c r="T7" s="306"/>
+      <c r="M7" s="180"/>
+      <c r="N7" s="180"/>
+      <c r="Q7" s="180"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="214"/>
     </row>
     <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="163" t="s">
         <v>243</v>
       </c>
-      <c r="C8" s="264">
+      <c r="C8" s="172">
         <v>1.6865017081063214E-16</v>
       </c>
-      <c r="D8" s="265">
+      <c r="D8" s="173">
         <v>-2.0381313856749337</v>
       </c>
-      <c r="E8" s="265">
+      <c r="E8" s="173">
         <v>3.0381313856749337</v>
       </c>
-      <c r="F8" s="266">
+      <c r="F8" s="174">
         <v>0</v>
       </c>
-      <c r="G8" s="267">
+      <c r="G8" s="175">
         <v>0</v>
       </c>
-      <c r="J8" s="273" t="s">
+      <c r="J8" s="181" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="Q8" s="272"/>
-      <c r="S8" s="263"/>
-      <c r="T8" s="306"/>
+      <c r="K8" s="180"/>
+      <c r="L8" s="180"/>
+      <c r="M8" s="180"/>
+      <c r="N8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="214"/>
     </row>
     <row r="9" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="163" t="s">
         <v>244</v>
       </c>
-      <c r="C9" s="264">
+      <c r="C9" s="172">
         <v>5.5511151231257852E-17</v>
       </c>
-      <c r="D9" s="265">
+      <c r="D9" s="173">
         <v>0</v>
       </c>
-      <c r="E9" s="265">
+      <c r="E9" s="173">
         <v>-3.0769983737932272</v>
       </c>
-      <c r="F9" s="265">
+      <c r="F9" s="173">
         <v>4.0769983737932272</v>
       </c>
-      <c r="G9" s="267">
+      <c r="G9" s="175">
         <v>0</v>
       </c>
       <c r="J9" s="50"/>
-      <c r="K9" s="272"/>
-      <c r="L9" s="272"/>
-      <c r="M9" s="272"/>
-      <c r="N9" s="272"/>
-      <c r="Q9" s="272"/>
-      <c r="S9" s="263"/>
-      <c r="T9" s="306"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
+      <c r="Q9" s="180"/>
+      <c r="S9" s="171"/>
+      <c r="T9" s="214"/>
     </row>
     <row r="10" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="268">
+      <c r="C10" s="176">
         <v>-2.2935090300213447E-16</v>
       </c>
-      <c r="D10" s="269">
+      <c r="D10" s="177">
         <v>5.697241084667845E-16</v>
       </c>
-      <c r="E10" s="269">
+      <c r="E10" s="177">
         <v>-5.697241084667845E-16</v>
       </c>
-      <c r="F10" s="269">
+      <c r="F10" s="177">
         <v>-4.1316185651899975</v>
       </c>
-      <c r="G10" s="270">
+      <c r="G10" s="178">
         <v>5.1316185651899975</v>
       </c>
       <c r="K10" s="163" t="s">
@@ -18411,73 +18706,73 @@
       <c r="P10" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="S10" s="263"/>
-      <c r="T10" s="306"/>
+      <c r="S10" s="171"/>
+      <c r="T10" s="214"/>
     </row>
     <row r="11" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="J11" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="K11" s="277">
-        <f t="array" aca="1" ref="K11:O11" ca="1">MMULT(C16:G16,$C$6:$G$10)*$L$6</f>
+      <c r="K11" s="185">
+        <f t="array" aca="1" ref="K11:O11" ca="1">MMULT(C16:G16,$C$6:$G$10)*$J$5</f>
         <v>98.228077410510949</v>
       </c>
-      <c r="L11" s="278">
+      <c r="L11" s="186">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="278">
+      <c r="M11" s="186">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="278">
+      <c r="N11" s="186">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="279">
+      <c r="O11" s="187">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P11" s="280">
+      <c r="P11" s="188">
         <v>98.228077410510949</v>
       </c>
-      <c r="Q11" s="273" t="s">
+      <c r="Q11" s="181" t="s">
         <v>256</v>
       </c>
-      <c r="S11" s="263"/>
+      <c r="S11" s="171"/>
     </row>
     <row r="12" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B12" s="256" t="s">
+      <c r="B12" s="164" t="s">
         <v>246</v>
       </c>
-      <c r="F12" s="308"/>
-      <c r="J12" s="272" t="s">
+      <c r="F12" s="216"/>
+      <c r="J12" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="285">
-        <f t="array" aca="1" ref="K12:O12" ca="1">MMULT(C17:G17,$C$6:$G$10)*$L$6</f>
+      <c r="K12" s="193">
+        <f t="array" aca="1" ref="K12:O12" ca="1">MMULT(C17:G17,$C$6:$G$10)*$J$5</f>
         <v>-1.1641532182693482E-14</v>
       </c>
-      <c r="L12" s="286">
+      <c r="L12" s="194">
         <f ca="1"/>
         <v>195.18595027062989</v>
       </c>
-      <c r="M12" s="286">
+      <c r="M12" s="194">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="286">
+      <c r="N12" s="194">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="287">
+      <c r="O12" s="195">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P12" s="280">
+      <c r="P12" s="188">
         <v>195.18595027062989</v>
       </c>
-      <c r="Q12" s="273" t="s">
+      <c r="Q12" s="181" t="s">
         <v>258</v>
       </c>
     </row>
@@ -18485,65 +18780,65 @@
       <c r="B13" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="J13" s="272" t="s">
+      <c r="J13" s="180" t="s">
         <v>259</v>
       </c>
-      <c r="K13" s="292">
-        <f t="array" aca="1" ref="K13:O13" ca="1">MMULT(C18:G18,$C$6:$G$10)*$L$6</f>
+      <c r="K13" s="200">
+        <f t="array" aca="1" ref="K13:O13" ca="1">MMULT(C18:G18,$C$6:$G$10)*$J$5</f>
         <v>-4.2056521647204485E-14</v>
       </c>
-      <c r="L13" s="293">
+      <c r="L13" s="201">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M13" s="293">
+      <c r="M13" s="201">
         <f ca="1"/>
         <v>290.9530591246027</v>
       </c>
-      <c r="N13" s="293">
+      <c r="N13" s="201">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="294">
+      <c r="O13" s="202">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P13" s="280">
+      <c r="P13" s="188">
         <v>290.95305912460276</v>
       </c>
-      <c r="Q13" s="273" t="s">
+      <c r="Q13" s="181" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="50"/>
-      <c r="J14" s="272" t="s">
+      <c r="J14" s="180" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="285">
-        <f t="array" aca="1" ref="K14:O14" ca="1">MMULT(C19:G19,$C$6:$G$10)*$L$6</f>
+      <c r="K14" s="193">
+        <f t="array" aca="1" ref="K14:O14" ca="1">MMULT(C19:G19,$C$6:$G$10)*$J$5</f>
         <v>9.7585988944920791E-15</v>
       </c>
-      <c r="L14" s="286">
+      <c r="L14" s="194">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="286">
+      <c r="M14" s="194">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="286">
+      <c r="N14" s="194">
         <f ca="1"/>
         <v>385.51048937957063</v>
       </c>
-      <c r="O14" s="287">
+      <c r="O14" s="195">
         <f ca="1"/>
         <v>0</v>
       </c>
-      <c r="P14" s="280">
+      <c r="P14" s="188">
         <v>385.51048937957069</v>
       </c>
-      <c r="Q14" s="273" t="s">
+      <c r="Q14" s="181" t="s">
         <v>262</v>
       </c>
     </row>
@@ -18563,33 +18858,33 @@
       <c r="G15" s="163" t="s">
         <v>253</v>
       </c>
-      <c r="J15" s="272" t="s">
+      <c r="J15" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="K15" s="292">
-        <f t="array" aca="1" ref="K15:O15" ca="1">MMULT(C20:G20,$C$6:$G$10)*$L$6</f>
+      <c r="K15" s="200">
+        <f t="array" aca="1" ref="K15:O15" ca="1">MMULT(C20:G20,$C$6:$G$10)*$J$5</f>
         <v>-1.1641532182693487E-14</v>
       </c>
-      <c r="L15" s="293">
+      <c r="L15" s="201">
         <f ca="1"/>
         <v>5.31594619398922E-14</v>
       </c>
-      <c r="M15" s="293">
+      <c r="M15" s="201">
         <f ca="1"/>
         <v>-5.31594619398922E-14</v>
       </c>
-      <c r="N15" s="293">
+      <c r="N15" s="201">
         <f ca="1"/>
         <v>-4.6566128730773928E-14</v>
       </c>
-      <c r="O15" s="294">
+      <c r="O15" s="202">
         <f ca="1"/>
         <v>478.81786596742916</v>
       </c>
-      <c r="P15" s="280">
+      <c r="P15" s="188">
         <v>478.81786596742916</v>
       </c>
-      <c r="Q15" s="273" t="s">
+      <c r="Q15" s="181" t="s">
         <v>264</v>
       </c>
     </row>
@@ -18597,229 +18892,229 @@
       <c r="B16" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="C16" s="274">
+      <c r="C16" s="182">
         <v>982280.77410510939</v>
       </c>
-      <c r="D16" s="275">
+      <c r="D16" s="183">
         <v>0</v>
       </c>
-      <c r="E16" s="275">
+      <c r="E16" s="183">
         <v>0</v>
       </c>
-      <c r="F16" s="275">
+      <c r="F16" s="183">
         <v>0</v>
       </c>
-      <c r="G16" s="276">
+      <c r="G16" s="184">
         <v>0</v>
       </c>
-      <c r="J16" s="272" t="s">
+      <c r="J16" s="180" t="s">
         <v>265</v>
       </c>
-      <c r="K16" s="285">
-        <f t="array" aca="1" ref="K16:O16" ca="1">MMULT(C21:G21,$C$6:$G$10)*$L$6</f>
+      <c r="K16" s="193">
+        <f t="array" aca="1" ref="K16:O16" ca="1">MMULT(C21:G21,$C$6:$G$10)*$J$5</f>
         <v>-2.1400131077185566E-14</v>
       </c>
-      <c r="L16" s="286">
+      <c r="L16" s="194">
         <f ca="1"/>
         <v>5.31594619398922E-14</v>
       </c>
-      <c r="M16" s="286">
+      <c r="M16" s="194">
         <f ca="1"/>
         <v>-5.31594619398922E-14</v>
       </c>
-      <c r="N16" s="286">
+      <c r="N16" s="194">
         <f ca="1"/>
         <v>-385.51048937957063</v>
       </c>
-      <c r="O16" s="287">
+      <c r="O16" s="195">
         <f ca="1"/>
         <v>478.81786596742916</v>
       </c>
-      <c r="P16" s="280">
+      <c r="P16" s="188">
         <v>93.307376587858471</v>
       </c>
-      <c r="Q16" s="273" t="s">
+      <c r="Q16" s="181" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B17" s="272" t="s">
+      <c r="B17" s="180" t="s">
         <v>257</v>
       </c>
-      <c r="C17" s="281">
+      <c r="C17" s="189">
         <v>982280.77410510939</v>
       </c>
-      <c r="D17" s="282">
+      <c r="D17" s="190">
         <v>969578.7286011891</v>
       </c>
-      <c r="E17" s="283">
+      <c r="E17" s="191">
         <v>0</v>
       </c>
-      <c r="F17" s="283">
+      <c r="F17" s="191">
         <v>0</v>
       </c>
-      <c r="G17" s="284">
+      <c r="G17" s="192">
         <v>0</v>
       </c>
-      <c r="J17" s="272" t="s">
+      <c r="J17" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="K17" s="301">
-        <f t="array" aca="1" ref="K17:O17" ca="1">MMULT(C22:G22,$C$6:$G$10)*$L$6</f>
+      <c r="K17" s="209">
+        <f t="array" aca="1" ref="K17:O17" ca="1">MMULT(C22:G22,$C$6:$G$10)*$J$5</f>
         <v>-9.4146664410070419E-16</v>
       </c>
-      <c r="L17" s="302">
+      <c r="L17" s="210">
         <f ca="1"/>
         <v>2.65797309699461E-14</v>
       </c>
-      <c r="M17" s="302">
+      <c r="M17" s="210">
         <f ca="1"/>
         <v>-2.65797309699461E-14</v>
       </c>
-      <c r="N17" s="302">
+      <c r="N17" s="210">
         <f ca="1"/>
         <v>192.75524468978529</v>
       </c>
-      <c r="O17" s="303">
+      <c r="O17" s="211">
         <f ca="1"/>
         <v>239.40893298371458</v>
       </c>
-      <c r="P17" s="280">
+      <c r="P17" s="188">
         <v>432.16417767349992</v>
       </c>
-      <c r="Q17" s="273" t="s">
+      <c r="Q17" s="181" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B18" s="272" t="s">
+      <c r="B18" s="180" t="s">
         <v>259</v>
       </c>
-      <c r="C18" s="288">
+      <c r="C18" s="196">
         <v>982280.77410510893</v>
       </c>
-      <c r="D18" s="289">
+      <c r="D18" s="197">
         <v>969578.7286011891</v>
       </c>
-      <c r="E18" s="289">
+      <c r="E18" s="197">
         <v>957671.08853972843</v>
       </c>
-      <c r="F18" s="290">
+      <c r="F18" s="198">
         <v>0</v>
       </c>
-      <c r="G18" s="291">
+      <c r="G18" s="199">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B19" s="272" t="s">
+      <c r="B19" s="180" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="281">
+      <c r="C19" s="189">
         <v>982280.77410510939</v>
       </c>
-      <c r="D19" s="282">
+      <c r="D19" s="190">
         <v>969578.7286011891</v>
       </c>
-      <c r="E19" s="282">
+      <c r="E19" s="190">
         <v>957671.08853972843</v>
       </c>
-      <c r="F19" s="282">
+      <c r="F19" s="190">
         <v>945574.30254967895</v>
       </c>
-      <c r="G19" s="284">
+      <c r="G19" s="192">
         <v>0</v>
       </c>
-      <c r="N19" s="263"/>
-      <c r="O19" s="263"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="171"/>
     </row>
     <row r="20" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B20" s="272" t="s">
+      <c r="B20" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="288">
+      <c r="C20" s="196">
         <v>982280.77410510939</v>
       </c>
-      <c r="D20" s="289">
+      <c r="D20" s="197">
         <v>969578.7286011891</v>
       </c>
-      <c r="E20" s="289">
+      <c r="E20" s="197">
         <v>957671.08853972843</v>
       </c>
-      <c r="F20" s="289">
+      <c r="F20" s="197">
         <v>945574.30254967895</v>
       </c>
-      <c r="G20" s="295">
+      <c r="G20" s="203">
         <v>933073.76587858482</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B21" s="272" t="s">
+      <c r="B21" s="180" t="s">
         <v>265</v>
       </c>
-      <c r="C21" s="281">
+      <c r="C21" s="189">
         <v>0</v>
       </c>
-      <c r="D21" s="282">
+      <c r="D21" s="190">
         <v>0</v>
       </c>
-      <c r="E21" s="282">
+      <c r="E21" s="190">
         <v>0</v>
       </c>
-      <c r="F21" s="282">
+      <c r="F21" s="190">
         <v>0</v>
       </c>
-      <c r="G21" s="296">
+      <c r="G21" s="204">
         <v>933073.76587858482</v>
       </c>
-      <c r="H21" s="297" t="s">
+      <c r="H21" s="205" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="272" t="s">
+      <c r="B22" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="C22" s="298">
+      <c r="C22" s="206">
         <v>982280.77410510939</v>
       </c>
-      <c r="D22" s="299">
+      <c r="D22" s="207">
         <v>969578.7286011891</v>
       </c>
-      <c r="E22" s="299">
+      <c r="E22" s="207">
         <v>957671.08853972843</v>
       </c>
-      <c r="F22" s="299">
+      <c r="F22" s="207">
         <v>945574.30254967895</v>
       </c>
-      <c r="G22" s="300">
+      <c r="G22" s="208">
         <v>466536.88293929241</v>
       </c>
-      <c r="H22" s="297" t="s">
+      <c r="H22" s="205" t="s">
         <v>268</v>
       </c>
-      <c r="I22" s="297"/>
+      <c r="I22" s="205"/>
       <c r="K22" s="96"/>
       <c r="L22" s="96"/>
       <c r="M22" s="96"/>
-      <c r="N22" s="305"/>
-      <c r="O22" s="305"/>
+      <c r="N22" s="213"/>
+      <c r="O22" s="213"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I23" s="297"/>
+      <c r="I23" s="205"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="304" t="s">
+      <c r="B25" s="212" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="297" t="s">
+      <c r="B26" s="205" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="309" t="s">
+      <c r="B28" s="217" t="s">
         <v>275</v>
       </c>
     </row>
